--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Toote nimi</t>
+          <t>d</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Puu</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -446,19 +446,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
